--- a/分数统计.xlsx
+++ b/分数统计.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>人名</t>
   </si>
@@ -30,6 +30,9 @@
     <t>总冒泡(x2)</t>
   </si>
   <si>
+    <t>另外</t>
+  </si>
+  <si>
     <t>柴墨轩</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t>司汶蓬</t>
   </si>
   <si>
+    <t>讲堂x30</t>
+  </si>
+  <si>
     <t>赵欣蕊</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
     <t>杨春旭</t>
   </si>
   <si>
+    <t>自动分享x50</t>
+  </si>
+  <si>
     <t>鞠陶然</t>
   </si>
   <si>
@@ -139,9 +148,6 @@
   </si>
   <si>
     <t>李卓凝</t>
-  </si>
-  <si>
-    <t>？BML黑白拍</t>
   </si>
 </sst>
 </file>
@@ -152,12 +158,35 @@
     <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/m;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
+      <b val="true"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
+      <b val="true"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
+      <color rgb="FE2C23"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
+      <b val="true"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
+      <color rgb="4DA8EE"/>
     </font>
     <font>
       <name val="等线"/>
@@ -168,9 +197,16 @@
     <font>
       <name val="等线"/>
       <sz val="9.0"/>
-      <b val="true"/>
       <scheme val="minor"/>
       <strike val="false"/>
+      <color rgb="FE2C23"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
+      <color rgb="4DA8EE"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
@@ -205,19 +241,37 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -239,7 +293,10 @@
     <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
     <col min="6" max="6" width="10.833333333333334" customWidth="true"/>
     <col min="7" max="7" width="10.833333333333334" customWidth="true"/>
-    <col min="8" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
+    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
+    <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
+    <col min="11" max="18" width="10.833333333333334" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -252,599 +309,837 @@
       <c r="C1" s="2" t="n">
         <v>44227.0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="n">
+        <v>44228.0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>8.0</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>6.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>7.0</v>
-      </c>
+        <v>16.0</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>31.0</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>30.0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>2.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>155.0</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>30.0</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>239.0</v>
+        <v>65.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>18.0</v>
+        <v>105.0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="12" t="n">
         <v>55.0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>55.0</v>
+        <v>17.0</v>
       </c>
       <c r="E20" s="7" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F20" s="8" t="n">
         <v>2.0</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>3.0</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="9"/>
+      <c r="E32" s="7" t="n">
         <v>3.0</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="F32" s="8" t="n">
         <v>1.0</v>
       </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="9"/>
+      <c r="E35" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8" t="n">
         <v>3.0</v>
       </c>
+      <c r="I35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>0.0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="5"/>
     </row>
     <row r="40">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41">
-</row>
+      <c r="A41" s="1"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
     <row r="42">
-</row>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
     <row r="43">
 </row>
     <row r="44">

--- a/分数统计.xlsx
+++ b/分数统计.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
   <si>
     <t>人名</t>
   </si>
@@ -36,6 +36,9 @@
     <t>柴墨轩</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>薛程玮</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>陈宝康</t>
+  </si>
+  <si>
+    <t>大讲堂x30</t>
   </si>
   <si>
     <t>谷常岳</t>
@@ -175,6 +181,12 @@
     <font>
       <name val="等线"/>
       <sz val="9.0"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
       <b val="true"/>
       <scheme val="minor"/>
       <strike val="false"/>
@@ -187,12 +199,6 @@
       <scheme val="minor"/>
       <strike val="false"/>
       <color rgb="4DA8EE"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <sz val="9.0"/>
-      <scheme val="minor"/>
-      <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
@@ -238,13 +244,25 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
@@ -253,19 +271,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
@@ -312,833 +324,1195 @@
       <c r="D1" s="2" t="n">
         <v>44228.0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3" t="n">
+        <v>44229.0</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="n">
         <v>16.0</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="8" t="n">
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="n">
         <v>8.0</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>20.0</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="n">
         <v>20.0</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="n">
         <v>4.0</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>5.0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" s="10" t="n">
         <v>1.0</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>30.0</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>37.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>21</v>
+        <v>35.0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="n">
         <v>10.0</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="11" t="n">
         <v>30.0</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>65.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="F19" s="8" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="G19" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="H19" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="H19" s="8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
+      <c r="I19" s="10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>55.0</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>17.0</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="F20" s="8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G20" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="H20" s="10" t="n">
         <v>12.0</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9" t="n">
         <v>4.0</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="8" t="n">
+      <c r="G31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="n">
         <v>3.0</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7" t="n">
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="n">
         <v>3.0</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="G32" s="10" t="n">
         <v>1.0</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="5"/>
+      <c r="H32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>5.0</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="9" t="n">
         <v>5.0</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <v>6.0</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="10" t="n">
         <v>3.0</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="6"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="n">
         <v>4.0</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="8" t="n">
+      <c r="G39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="12"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42">
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43">
 </row>
